--- a/data/raw/election/voters-age-sex-education/2023/Çankırı.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Çankırı.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="41">
   <si>
     <t>Çankırı</t>
   </si>
@@ -136,6 +137,12 @@
   </si>
   <si>
     <t>Yapraklı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -669,7 +676,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -688,6 +695,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1017,10 +1033,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N316"/>
+  <dimension ref="A1:N318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,48 +1055,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2086,8 +2102,8 @@
       <c r="D30" s="5">
         <v>112</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.2</v>
+      <c r="E30" s="7">
+        <v>1200</v>
       </c>
       <c r="F30" s="5">
         <v>218</v>
@@ -2110,15 +2126,15 @@
       <c r="L30" s="5">
         <v>22</v>
       </c>
-      <c r="M30" s="5">
-        <v>3.2869999999999999</v>
+      <c r="M30" s="7">
+        <v>3287</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2143,7 +2159,7 @@
       <c r="J31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -2184,8 +2200,8 @@
       <c r="J32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>15</v>
+      <c r="K32" s="4">
+        <v>0</v>
       </c>
       <c r="L32" s="4">
         <v>1</v>
@@ -2223,8 +2239,8 @@
       <c r="J33" s="4">
         <v>1</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>15</v>
+      <c r="K33" s="4">
+        <v>0</v>
       </c>
       <c r="L33" s="4">
         <v>1</v>
@@ -2264,8 +2280,8 @@
       <c r="J34" s="4">
         <v>3</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>15</v>
+      <c r="K34" s="4">
+        <v>0</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>15</v>
@@ -2303,8 +2319,8 @@
       <c r="J35" s="4">
         <v>1</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>15</v>
+      <c r="K35" s="4">
+        <v>0</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>15</v>
@@ -2344,8 +2360,8 @@
       <c r="J36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>15</v>
+      <c r="K36" s="4">
+        <v>0</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>15</v>
@@ -2383,8 +2399,8 @@
       <c r="J37" s="4">
         <v>2</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>15</v>
+      <c r="K37" s="4">
+        <v>0</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>15</v>
@@ -2424,8 +2440,8 @@
       <c r="J38" s="4">
         <v>2</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>15</v>
+      <c r="K38" s="4">
+        <v>0</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>15</v>
@@ -2463,8 +2479,8 @@
       <c r="J39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>15</v>
+      <c r="K39" s="4">
+        <v>0</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>15</v>
@@ -2504,8 +2520,8 @@
       <c r="J40" s="4">
         <v>1</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>15</v>
+      <c r="K40" s="4">
+        <v>0</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>15</v>
@@ -2543,8 +2559,8 @@
       <c r="J41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>15</v>
+      <c r="K41" s="4">
+        <v>0</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>15</v>
@@ -2584,8 +2600,8 @@
       <c r="J42" s="4">
         <v>2</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>15</v>
+      <c r="K42" s="4">
+        <v>0</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>15</v>
@@ -2623,8 +2639,8 @@
       <c r="J43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>15</v>
+      <c r="K43" s="4">
+        <v>0</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>15</v>
@@ -2664,8 +2680,8 @@
       <c r="J44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>15</v>
+      <c r="K44" s="4">
+        <v>0</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>15</v>
@@ -2703,8 +2719,8 @@
       <c r="J45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>15</v>
+      <c r="K45" s="4">
+        <v>0</v>
       </c>
       <c r="L45" s="4">
         <v>1</v>
@@ -2744,8 +2760,8 @@
       <c r="J46" s="4">
         <v>2</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>15</v>
+      <c r="K46" s="4">
+        <v>0</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>15</v>
@@ -2783,8 +2799,8 @@
       <c r="J47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>15</v>
+      <c r="K47" s="4">
+        <v>0</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>15</v>
@@ -2824,8 +2840,8 @@
       <c r="J48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>15</v>
+      <c r="K48" s="4">
+        <v>0</v>
       </c>
       <c r="L48" s="4">
         <v>1</v>
@@ -2863,8 +2879,8 @@
       <c r="J49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>15</v>
+      <c r="K49" s="4">
+        <v>0</v>
       </c>
       <c r="L49" s="4">
         <v>1</v>
@@ -2904,8 +2920,8 @@
       <c r="J50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>15</v>
+      <c r="K50" s="4">
+        <v>0</v>
       </c>
       <c r="L50" s="4">
         <v>1</v>
@@ -2943,8 +2959,8 @@
       <c r="J51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>15</v>
+      <c r="K51" s="4">
+        <v>0</v>
       </c>
       <c r="L51" s="4">
         <v>1</v>
@@ -2984,8 +3000,8 @@
       <c r="J52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>15</v>
+      <c r="K52" s="4">
+        <v>0</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>15</v>
@@ -3023,8 +3039,8 @@
       <c r="J53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>15</v>
+      <c r="K53" s="4">
+        <v>0</v>
       </c>
       <c r="L53" s="4">
         <v>2</v>
@@ -3064,8 +3080,8 @@
       <c r="J54" s="4">
         <v>1</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>15</v>
+      <c r="K54" s="4">
+        <v>0</v>
       </c>
       <c r="L54" s="4">
         <v>2</v>
@@ -3103,8 +3119,8 @@
       <c r="J55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>15</v>
+      <c r="K55" s="4">
+        <v>0</v>
       </c>
       <c r="L55" s="4">
         <v>2</v>
@@ -3142,21 +3158,21 @@
       <c r="J56" s="5">
         <v>15</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="4">
         <v>0</v>
       </c>
       <c r="L56" s="5">
         <v>13</v>
       </c>
-      <c r="M56" s="5">
-        <v>2.19</v>
+      <c r="M56" s="7">
+        <v>2190</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3213,8 +3229,8 @@
       <c r="G58" s="4">
         <v>830</v>
       </c>
-      <c r="H58" s="4">
-        <v>2.7440000000000002</v>
+      <c r="H58" s="8">
+        <v>2744</v>
       </c>
       <c r="I58" s="4">
         <v>586</v>
@@ -3228,8 +3244,8 @@
       <c r="L58" s="4">
         <v>31</v>
       </c>
-      <c r="M58" s="5">
-        <v>4.2370000000000001</v>
+      <c r="M58" s="7">
+        <v>4237</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3252,8 +3268,8 @@
       <c r="G59" s="4">
         <v>752</v>
       </c>
-      <c r="H59" s="4">
-        <v>2.702</v>
+      <c r="H59" s="8">
+        <v>2702</v>
       </c>
       <c r="I59" s="4">
         <v>926</v>
@@ -3267,8 +3283,8 @@
       <c r="L59" s="4">
         <v>12</v>
       </c>
-      <c r="M59" s="5">
-        <v>4.4470000000000001</v>
+      <c r="M59" s="7">
+        <v>4447</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3293,11 +3309,11 @@
       <c r="G60" s="4">
         <v>474</v>
       </c>
-      <c r="H60" s="4">
-        <v>1.361</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1.2889999999999999</v>
+      <c r="H60" s="8">
+        <v>1361</v>
+      </c>
+      <c r="I60" s="8">
+        <v>1289</v>
       </c>
       <c r="J60" s="4">
         <v>88</v>
@@ -3308,8 +3324,8 @@
       <c r="L60" s="4">
         <v>13</v>
       </c>
-      <c r="M60" s="5">
-        <v>3.2639999999999998</v>
+      <c r="M60" s="7">
+        <v>3264</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3335,8 +3351,8 @@
       <c r="H61" s="4">
         <v>899</v>
       </c>
-      <c r="I61" s="4">
-        <v>1.768</v>
+      <c r="I61" s="8">
+        <v>1768</v>
       </c>
       <c r="J61" s="4">
         <v>129</v>
@@ -3347,8 +3363,8 @@
       <c r="L61" s="4">
         <v>12</v>
       </c>
-      <c r="M61" s="5">
-        <v>3.5339999999999998</v>
+      <c r="M61" s="7">
+        <v>3534</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3373,11 +3389,11 @@
       <c r="G62" s="4">
         <v>295</v>
       </c>
-      <c r="H62" s="4">
-        <v>1.286</v>
-      </c>
-      <c r="I62" s="4">
-        <v>1.2450000000000001</v>
+      <c r="H62" s="8">
+        <v>1286</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1245</v>
       </c>
       <c r="J62" s="4">
         <v>199</v>
@@ -3388,8 +3404,8 @@
       <c r="L62" s="4">
         <v>7</v>
       </c>
-      <c r="M62" s="5">
-        <v>3.4209999999999998</v>
+      <c r="M62" s="7">
+        <v>3421</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3415,8 +3431,8 @@
       <c r="H63" s="4">
         <v>928</v>
       </c>
-      <c r="I63" s="4">
-        <v>1.294</v>
+      <c r="I63" s="8">
+        <v>1294</v>
       </c>
       <c r="J63" s="4">
         <v>213</v>
@@ -3427,8 +3443,8 @@
       <c r="L63" s="4">
         <v>13</v>
       </c>
-      <c r="M63" s="5">
-        <v>3.339</v>
+      <c r="M63" s="7">
+        <v>3339</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3453,11 +3469,11 @@
       <c r="G64" s="4">
         <v>240</v>
       </c>
-      <c r="H64" s="4">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="I64" s="4">
-        <v>1.0289999999999999</v>
+      <c r="H64" s="8">
+        <v>1265</v>
+      </c>
+      <c r="I64" s="8">
+        <v>1029</v>
       </c>
       <c r="J64" s="4">
         <v>215</v>
@@ -3468,8 +3484,8 @@
       <c r="L64" s="4">
         <v>18</v>
       </c>
-      <c r="M64" s="5">
-        <v>3.331</v>
+      <c r="M64" s="7">
+        <v>3331</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3507,8 +3523,8 @@
       <c r="L65" s="4">
         <v>16</v>
       </c>
-      <c r="M65" s="5">
-        <v>3.31</v>
+      <c r="M65" s="7">
+        <v>3310</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3533,8 +3549,8 @@
       <c r="G66" s="4">
         <v>428</v>
       </c>
-      <c r="H66" s="4">
-        <v>1.2390000000000001</v>
+      <c r="H66" s="8">
+        <v>1239</v>
       </c>
       <c r="I66" s="4">
         <v>778</v>
@@ -3548,8 +3564,8 @@
       <c r="L66" s="4">
         <v>13</v>
       </c>
-      <c r="M66" s="5">
-        <v>3.1890000000000001</v>
+      <c r="M66" s="7">
+        <v>3189</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3587,8 +3603,8 @@
       <c r="L67" s="4">
         <v>11</v>
       </c>
-      <c r="M67" s="5">
-        <v>3.3540000000000001</v>
+      <c r="M67" s="7">
+        <v>3354</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3628,8 +3644,8 @@
       <c r="L68" s="4">
         <v>17</v>
       </c>
-      <c r="M68" s="5">
-        <v>2.895</v>
+      <c r="M68" s="7">
+        <v>2895</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3667,8 +3683,8 @@
       <c r="L69" s="4">
         <v>12</v>
       </c>
-      <c r="M69" s="5">
-        <v>2.9380000000000002</v>
+      <c r="M69" s="7">
+        <v>2938</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3708,8 +3724,8 @@
       <c r="L70" s="4">
         <v>10</v>
       </c>
-      <c r="M70" s="5">
-        <v>2.5449999999999999</v>
+      <c r="M70" s="7">
+        <v>2545</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3747,8 +3763,8 @@
       <c r="L71" s="4">
         <v>21</v>
       </c>
-      <c r="M71" s="5">
-        <v>2.6680000000000001</v>
+      <c r="M71" s="7">
+        <v>2668</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3788,8 +3804,8 @@
       <c r="L72" s="4">
         <v>18</v>
       </c>
-      <c r="M72" s="5">
-        <v>2.4750000000000001</v>
+      <c r="M72" s="7">
+        <v>2475</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3803,8 +3819,8 @@
       <c r="D73" s="4">
         <v>72</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.1679999999999999</v>
+      <c r="E73" s="8">
+        <v>1168</v>
       </c>
       <c r="F73" s="4">
         <v>439</v>
@@ -3827,8 +3843,8 @@
       <c r="L73" s="4">
         <v>16</v>
       </c>
-      <c r="M73" s="5">
-        <v>2.6389999999999998</v>
+      <c r="M73" s="7">
+        <v>2639</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3868,8 +3884,8 @@
       <c r="L74" s="4">
         <v>18</v>
       </c>
-      <c r="M74" s="5">
-        <v>2.1269999999999998</v>
+      <c r="M74" s="7">
+        <v>2127</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3883,8 +3899,8 @@
       <c r="D75" s="4">
         <v>130</v>
       </c>
-      <c r="E75" s="4">
-        <v>1.1870000000000001</v>
+      <c r="E75" s="8">
+        <v>1187</v>
       </c>
       <c r="F75" s="4">
         <v>203</v>
@@ -3907,8 +3923,8 @@
       <c r="L75" s="4">
         <v>13</v>
       </c>
-      <c r="M75" s="5">
-        <v>2.2050000000000001</v>
+      <c r="M75" s="7">
+        <v>2205</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3948,8 +3964,8 @@
       <c r="L76" s="4">
         <v>18</v>
       </c>
-      <c r="M76" s="5">
-        <v>1.708</v>
+      <c r="M76" s="7">
+        <v>1708</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3963,8 +3979,8 @@
       <c r="D77" s="4">
         <v>166</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.091</v>
+      <c r="E77" s="8">
+        <v>1091</v>
       </c>
       <c r="F77" s="4">
         <v>73</v>
@@ -3987,8 +4003,8 @@
       <c r="L77" s="4">
         <v>13</v>
       </c>
-      <c r="M77" s="5">
-        <v>1.8740000000000001</v>
+      <c r="M77" s="7">
+        <v>1874</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4028,8 +4044,8 @@
       <c r="L78" s="4">
         <v>3</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.161</v>
+      <c r="M78" s="7">
+        <v>1161</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4067,8 +4083,8 @@
       <c r="L79" s="4">
         <v>4</v>
       </c>
-      <c r="M79" s="5">
-        <v>1.4179999999999999</v>
+      <c r="M79" s="7">
+        <v>1418</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4108,8 +4124,8 @@
       <c r="L80" s="4">
         <v>12</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.38</v>
+      <c r="M80" s="7">
+        <v>1380</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4147,8 +4163,8 @@
       <c r="L81" s="4">
         <v>10</v>
       </c>
-      <c r="M81" s="5">
-        <v>2.0950000000000002</v>
+      <c r="M81" s="7">
+        <v>2095</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4156,29 +4172,29 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.458</v>
-      </c>
-      <c r="E82" s="5">
-        <v>11.215</v>
-      </c>
-      <c r="F82" s="5">
-        <v>6.6040000000000001</v>
-      </c>
-      <c r="G82" s="5">
-        <v>8.8290000000000006</v>
-      </c>
-      <c r="H82" s="5">
-        <v>19.684000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>13.853999999999999</v>
-      </c>
-      <c r="J82" s="5">
-        <v>1.671</v>
+      <c r="C82" s="7">
+        <v>1543</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1458</v>
+      </c>
+      <c r="E82" s="7">
+        <v>11215</v>
+      </c>
+      <c r="F82" s="7">
+        <v>6604</v>
+      </c>
+      <c r="G82" s="7">
+        <v>8829</v>
+      </c>
+      <c r="H82" s="7">
+        <v>19684</v>
+      </c>
+      <c r="I82" s="7">
+        <v>13854</v>
+      </c>
+      <c r="J82" s="7">
+        <v>1671</v>
       </c>
       <c r="K82" s="5">
         <v>365</v>
@@ -4186,15 +4202,15 @@
       <c r="L82" s="5">
         <v>331</v>
       </c>
-      <c r="M82" s="5">
-        <v>65.554000000000002</v>
+      <c r="M82" s="7">
+        <v>65554</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -5200,20 +5216,20 @@
       <c r="D108" s="5">
         <v>495</v>
       </c>
-      <c r="E108" s="5">
-        <v>3.7669999999999999</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.232</v>
-      </c>
-      <c r="G108" s="5">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="H108" s="5">
-        <v>3.1469999999999998</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.637</v>
+      <c r="E108" s="7">
+        <v>3767</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1232</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1799</v>
+      </c>
+      <c r="H108" s="7">
+        <v>3147</v>
+      </c>
+      <c r="I108" s="7">
+        <v>1637</v>
       </c>
       <c r="J108" s="5">
         <v>150</v>
@@ -5224,15 +5240,15 @@
       <c r="L108" s="5">
         <v>60</v>
       </c>
-      <c r="M108" s="5">
-        <v>12.773999999999999</v>
+      <c r="M108" s="7">
+        <v>12774</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -6238,8 +6254,8 @@
       <c r="D134" s="5">
         <v>331</v>
       </c>
-      <c r="E134" s="5">
-        <v>1.4490000000000001</v>
+      <c r="E134" s="7">
+        <v>1449</v>
       </c>
       <c r="F134" s="5">
         <v>399</v>
@@ -6247,8 +6263,8 @@
       <c r="G134" s="5">
         <v>699</v>
       </c>
-      <c r="H134" s="5">
-        <v>1.425</v>
+      <c r="H134" s="7">
+        <v>1425</v>
       </c>
       <c r="I134" s="5">
         <v>622</v>
@@ -6262,15 +6278,15 @@
       <c r="L134" s="5">
         <v>24</v>
       </c>
-      <c r="M134" s="5">
-        <v>5.2110000000000003</v>
+      <c r="M134" s="7">
+        <v>5211</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -7276,20 +7292,20 @@
       <c r="D160" s="5">
         <v>583</v>
       </c>
-      <c r="E160" s="5">
-        <v>4.1189999999999998</v>
+      <c r="E160" s="7">
+        <v>4119</v>
       </c>
       <c r="F160" s="5">
         <v>827</v>
       </c>
-      <c r="G160" s="5">
-        <v>1.4810000000000001</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.4940000000000002</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.341</v>
+      <c r="G160" s="7">
+        <v>1481</v>
+      </c>
+      <c r="H160" s="7">
+        <v>2494</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1341</v>
       </c>
       <c r="J160" s="5">
         <v>106</v>
@@ -7300,15 +7316,15 @@
       <c r="L160" s="5">
         <v>36</v>
       </c>
-      <c r="M160" s="5">
-        <v>11.538</v>
+      <c r="M160" s="7">
+        <v>11538</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -8314,8 +8330,8 @@
       <c r="D186" s="5">
         <v>368</v>
       </c>
-      <c r="E186" s="5">
-        <v>2.3610000000000002</v>
+      <c r="E186" s="7">
+        <v>2361</v>
       </c>
       <c r="F186" s="5">
         <v>569</v>
@@ -8323,8 +8339,8 @@
       <c r="G186" s="5">
         <v>821</v>
       </c>
-      <c r="H186" s="5">
-        <v>1.0009999999999999</v>
+      <c r="H186" s="7">
+        <v>1001</v>
       </c>
       <c r="I186" s="5">
         <v>383</v>
@@ -8338,15 +8354,15 @@
       <c r="L186" s="5">
         <v>42</v>
       </c>
-      <c r="M186" s="5">
-        <v>5.8659999999999997</v>
+      <c r="M186" s="7">
+        <v>5866</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -9352,8 +9368,8 @@
       <c r="D212" s="5">
         <v>192</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.355</v>
+      <c r="E212" s="7">
+        <v>1355</v>
       </c>
       <c r="F212" s="5">
         <v>255</v>
@@ -9376,15 +9392,15 @@
       <c r="L212" s="5">
         <v>14</v>
       </c>
-      <c r="M212" s="5">
-        <v>3.33</v>
+      <c r="M212" s="7">
+        <v>3330</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -10390,8 +10406,8 @@
       <c r="D238" s="5">
         <v>277</v>
       </c>
-      <c r="E238" s="5">
-        <v>2.181</v>
+      <c r="E238" s="7">
+        <v>2181</v>
       </c>
       <c r="F238" s="5">
         <v>562</v>
@@ -10399,8 +10415,8 @@
       <c r="G238" s="5">
         <v>976</v>
       </c>
-      <c r="H238" s="5">
-        <v>1.5960000000000001</v>
+      <c r="H238" s="7">
+        <v>1596</v>
       </c>
       <c r="I238" s="5">
         <v>874</v>
@@ -10414,15 +10430,15 @@
       <c r="L238" s="5">
         <v>25</v>
       </c>
-      <c r="M238" s="5">
-        <v>6.8259999999999996</v>
+      <c r="M238" s="7">
+        <v>6826</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -11428,17 +11444,17 @@
       <c r="D264" s="5">
         <v>548</v>
       </c>
-      <c r="E264" s="5">
-        <v>3.7519999999999998</v>
+      <c r="E264" s="7">
+        <v>3752</v>
       </c>
       <c r="F264" s="5">
         <v>805</v>
       </c>
-      <c r="G264" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="H264" s="5">
-        <v>1.9410000000000001</v>
+      <c r="G264" s="7">
+        <v>1210</v>
+      </c>
+      <c r="H264" s="7">
+        <v>1941</v>
       </c>
       <c r="I264" s="5">
         <v>777</v>
@@ -11452,15 +11468,15 @@
       <c r="L264" s="5">
         <v>91</v>
       </c>
-      <c r="M264" s="5">
-        <v>9.6750000000000007</v>
+      <c r="M264" s="7">
+        <v>9675</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -12466,17 +12482,17 @@
       <c r="D290" s="5">
         <v>297</v>
       </c>
-      <c r="E290" s="5">
-        <v>2.7229999999999999</v>
+      <c r="E290" s="7">
+        <v>2723</v>
       </c>
       <c r="F290" s="5">
         <v>876</v>
       </c>
-      <c r="G290" s="5">
-        <v>1.319</v>
-      </c>
-      <c r="H290" s="5">
-        <v>2.5939999999999999</v>
+      <c r="G290" s="7">
+        <v>1319</v>
+      </c>
+      <c r="H290" s="7">
+        <v>2594</v>
       </c>
       <c r="I290" s="5">
         <v>947</v>
@@ -12490,15 +12506,15 @@
       <c r="L290" s="5">
         <v>82</v>
       </c>
-      <c r="M290" s="5">
-        <v>9.0739999999999998</v>
+      <c r="M290" s="7">
+        <v>9074</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -13504,8 +13520,8 @@
       <c r="D316" s="5">
         <v>517</v>
       </c>
-      <c r="E316" s="5">
-        <v>2.5030000000000001</v>
+      <c r="E316" s="7">
+        <v>2503</v>
       </c>
       <c r="F316" s="5">
         <v>539</v>
@@ -13513,8 +13529,8 @@
       <c r="G316" s="5">
         <v>656</v>
       </c>
-      <c r="H316" s="5">
-        <v>1.018</v>
+      <c r="H316" s="7">
+        <v>1018</v>
       </c>
       <c r="I316" s="5">
         <v>491</v>
@@ -13528,17 +13544,22 @@
       <c r="L316" s="5">
         <v>196</v>
       </c>
-      <c r="M316" s="5">
-        <v>6.5350000000000001</v>
+      <c r="M316" s="7">
+        <v>6535</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A318" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
@@ -13547,6 +13568,11 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
